--- a/Spreadsheet/Data.xlsx
+++ b/Spreadsheet/Data.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet state="visible" name="output" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="stats" sheetId="2" r:id="rId5"/>
-    <sheet state="hidden" name="hidden" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="hidden" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -532,19 +532,24 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>hidden!$C$12:$C$156</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hidden!$C$4:$EQ$4</c:f>
+              <c:f>hidden!$D$12:$D$156</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1876343511"/>
-        <c:axId val="1128110704"/>
+        <c:axId val="1234315726"/>
+        <c:axId val="852565970"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1876343511"/>
+        <c:axId val="1234315726"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,10 +601,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1128110704"/>
+        <c:crossAx val="852565970"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1128110704"/>
+        <c:axId val="852565970"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +679,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1876343511"/>
+        <c:crossAx val="1234315726"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -728,11 +733,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="859733228"/>
-        <c:axId val="631088392"/>
+        <c:axId val="580279658"/>
+        <c:axId val="1100993662"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="859733228"/>
+        <c:axId val="580279658"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,10 +789,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631088392"/>
+        <c:crossAx val="1100993662"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="631088392"/>
+        <c:axId val="1100993662"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +867,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="859733228"/>
+        <c:crossAx val="580279658"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -91642,870 +91647,1885 @@
         <f>COUNTA(output!C13:EQ13)</f>
         <v>70</v>
       </c>
+      <c r="C12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D156" si="1">COUNTIF(A$1:A$617,C12)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
         <f>COUNTA(output!C14:EQ14)</f>
         <v>88</v>
       </c>
+      <c r="C13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <f>COUNTA(output!C15:EQ15)</f>
         <v>6</v>
       </c>
+      <c r="C14" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
         <f>COUNTA(output!C16:EQ16)</f>
         <v>6</v>
       </c>
+      <c r="C15" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
         <f>COUNTA(output!C17:EQ17)</f>
         <v>24</v>
       </c>
+      <c r="C16" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
         <f>COUNTA(output!C18:EQ18)</f>
         <v>2</v>
       </c>
+      <c r="C17" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
         <f>COUNTA(output!C19:EQ19)</f>
         <v>2</v>
       </c>
+      <c r="C18" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
         <f>COUNTA(output!C20:EQ20)</f>
         <v>77</v>
       </c>
+      <c r="C19" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
         <f>COUNTA(output!C21:EQ21)</f>
         <v>64</v>
       </c>
+      <c r="C20" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
         <f>COUNTA(output!C22:EQ22)</f>
         <v>96</v>
       </c>
+      <c r="C21" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
         <f>COUNTA(output!C23:EQ23)</f>
         <v>77</v>
       </c>
+      <c r="C22" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
         <f>COUNTA(output!C24:EQ24)</f>
         <v>84</v>
       </c>
+      <c r="C23" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
         <f>COUNTA(output!C25:EQ25)</f>
         <v>19</v>
       </c>
+      <c r="C24" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
         <f>COUNTA(output!C26:EQ26)</f>
         <v>3</v>
       </c>
+      <c r="C25" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
         <f>COUNTA(output!C27:EQ27)</f>
         <v>56</v>
       </c>
+      <c r="C26" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
         <f>COUNTA(output!C28:EQ28)</f>
         <v>2</v>
       </c>
+      <c r="C27" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
         <f>COUNTA(output!C29:EQ29)</f>
         <v>100</v>
       </c>
+      <c r="C28" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
         <f>COUNTA(output!C30:EQ30)</f>
         <v>70</v>
       </c>
+      <c r="C29" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
         <f>COUNTA(output!C31:EQ31)</f>
         <v>2</v>
       </c>
+      <c r="C30" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
         <f>COUNTA(output!C32:EQ32)</f>
         <v>96</v>
       </c>
+      <c r="C31" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
         <f>COUNTA(output!C33:EQ33)</f>
         <v>71</v>
       </c>
+      <c r="C32" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
         <f>COUNTA(output!C34:EQ34)</f>
         <v>7</v>
       </c>
+      <c r="C33" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
         <f>COUNTA(output!C35:EQ35)</f>
         <v>3</v>
       </c>
+      <c r="C34" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
         <f>COUNTA(output!C36:EQ36)</f>
         <v>100</v>
       </c>
+      <c r="C35" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
         <f>COUNTA(output!C37:EQ37)</f>
         <v>5</v>
       </c>
+      <c r="C36" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
         <f>COUNTA(output!C38:EQ38)</f>
         <v>92</v>
       </c>
+      <c r="C37" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
         <f>COUNTA(output!C39:EQ39)</f>
         <v>4</v>
       </c>
+      <c r="C38" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
         <f>COUNTA(output!C40:EQ40)</f>
         <v>95</v>
       </c>
+      <c r="C39" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
         <f>COUNTA(output!C41:EQ41)</f>
         <v>123</v>
       </c>
+      <c r="C40" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
         <f>COUNTA(output!C42:EQ42)</f>
         <v>73</v>
       </c>
+      <c r="C41" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
         <f>COUNTA(output!C43:EQ43)</f>
         <v>3</v>
       </c>
+      <c r="C42" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
         <f>COUNTA(output!C44:EQ44)</f>
         <v>3</v>
       </c>
+      <c r="C43" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
         <f>COUNTA(output!C45:EQ45)</f>
         <v>4</v>
       </c>
+      <c r="C44" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
         <f>COUNTA(output!C46:EQ46)</f>
         <v>4</v>
       </c>
+      <c r="C45" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
         <f>COUNTA(output!C47:EQ47)</f>
         <v>3</v>
       </c>
+      <c r="C46" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
         <f>COUNTA(output!C48:EQ48)</f>
         <v>3</v>
       </c>
+      <c r="C47" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
         <f>COUNTA(output!C49:EQ49)</f>
         <v>6</v>
       </c>
+      <c r="C48" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
         <f>COUNTA(output!C50:EQ50)</f>
         <v>102</v>
       </c>
+      <c r="C49" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
         <f>COUNTA(output!C51:EQ51)</f>
         <v>7</v>
       </c>
+      <c r="C50" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
         <f>COUNTA(output!C52:EQ52)</f>
         <v>4</v>
       </c>
+      <c r="C51" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
         <f>COUNTA(output!C53:EQ53)</f>
         <v>4</v>
       </c>
+      <c r="C52" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
         <f>COUNTA(output!C54:EQ54)</f>
         <v>74</v>
       </c>
+      <c r="C53" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
         <f>COUNTA(output!C55:EQ55)</f>
         <v>91</v>
       </c>
+      <c r="C54" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
         <f>COUNTA(output!C56:EQ56)</f>
         <v>3</v>
       </c>
+      <c r="C55" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
         <f>COUNTA(output!C57:EQ57)</f>
         <v>2</v>
       </c>
+      <c r="C56" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
         <f>COUNTA(output!C58:EQ58)</f>
         <v>54</v>
       </c>
+      <c r="C57" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
         <f>COUNTA(output!C59:EQ59)</f>
         <v>8</v>
       </c>
+      <c r="C58" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
         <f>COUNTA(output!C60:EQ60)</f>
         <v>10</v>
       </c>
+      <c r="C59" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
         <f>COUNTA(output!C61:EQ61)</f>
         <v>5</v>
       </c>
+      <c r="C60" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
         <f>COUNTA(output!C62:EQ62)</f>
         <v>5</v>
       </c>
+      <c r="C61" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
         <f>COUNTA(output!C63:EQ63)</f>
         <v>6</v>
       </c>
+      <c r="C62" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
         <f>COUNTA(output!C64:EQ64)</f>
         <v>75</v>
       </c>
+      <c r="C63" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
         <f>COUNTA(output!C65:EQ65)</f>
         <v>104</v>
       </c>
+      <c r="C64" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
         <f>COUNTA(output!C66:EQ66)</f>
         <v>11</v>
       </c>
+      <c r="C65" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
         <f>COUNTA(output!C67:EQ67)</f>
         <v>45</v>
       </c>
+      <c r="C66" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
         <f>COUNTA(output!C68:EQ68)</f>
         <v>7</v>
       </c>
+      <c r="C67" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
         <f>COUNTA(output!C69:EQ69)</f>
         <v>7</v>
       </c>
+      <c r="C68" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
         <f>COUNTA(output!C70:EQ70)</f>
         <v>86</v>
       </c>
+      <c r="C69" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
         <f>COUNTA(output!C71:EQ71)</f>
         <v>86</v>
       </c>
+      <c r="C70" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
         <f>COUNTA(output!C72:EQ72)</f>
         <v>4</v>
       </c>
+      <c r="C71" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
         <f>COUNTA(output!C73:EQ73)</f>
         <v>3</v>
       </c>
+      <c r="C72" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
         <f>COUNTA(output!C74:EQ74)</f>
         <v>3</v>
       </c>
+      <c r="C73" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
         <f>COUNTA(output!C75:EQ75)</f>
         <v>55</v>
       </c>
+      <c r="C74" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
         <f>COUNTA(output!C76:EQ76)</f>
         <v>77</v>
       </c>
+      <c r="C75" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
         <f>COUNTA(output!C77:EQ77)</f>
         <v>72</v>
       </c>
+      <c r="C76" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
         <f>COUNTA(output!C78:EQ78)</f>
         <v>78</v>
       </c>
+      <c r="C77" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
         <f>COUNTA(output!C79:EQ79)</f>
         <v>78</v>
       </c>
+      <c r="C78" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
         <f>COUNTA(output!C80:EQ80)</f>
         <v>3</v>
       </c>
+      <c r="C79" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
         <f>COUNTA(output!C81:EQ81)</f>
         <v>91</v>
       </c>
+      <c r="C80" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
         <f>COUNTA(output!C82:EQ82)</f>
         <v>81</v>
       </c>
+      <c r="C81" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
         <f>COUNTA(output!C83:EQ83)</f>
         <v>2</v>
       </c>
+      <c r="C82" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
         <f>COUNTA(output!C84:EQ84)</f>
         <v>3</v>
       </c>
+      <c r="C83" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
         <f>COUNTA(output!C85:EQ85)</f>
         <v>72</v>
       </c>
+      <c r="C84" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
         <f>COUNTA(output!C86:EQ86)</f>
         <v>8</v>
       </c>
+      <c r="C85" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
         <f>COUNTA(output!C87:EQ87)</f>
         <v>4</v>
       </c>
+      <c r="C86" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
         <f>COUNTA(output!C88:EQ88)</f>
         <v>48</v>
       </c>
+      <c r="C87" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
         <f>COUNTA(output!C89:EQ89)</f>
         <v>83</v>
       </c>
+      <c r="C88" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
         <f>COUNTA(output!C90:EQ90)</f>
         <v>89</v>
       </c>
+      <c r="C89" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
         <f>COUNTA(output!C91:EQ91)</f>
         <v>107</v>
       </c>
+      <c r="C90" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
         <f>COUNTA(output!C92:EQ92)</f>
         <v>4</v>
       </c>
+      <c r="C91" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
         <f>COUNTA(output!C93:EQ93)</f>
         <v>93</v>
       </c>
+      <c r="C92" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
         <f>COUNTA(output!C94:EQ94)</f>
         <v>2</v>
       </c>
+      <c r="C93" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
         <f>COUNTA(output!C95:EQ95)</f>
         <v>2</v>
       </c>
+      <c r="C94" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
         <f>COUNTA(output!C96:EQ96)</f>
         <v>62</v>
       </c>
+      <c r="C95" s="1">
+        <v>84.0</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
         <f>COUNTA(output!C97:EQ97)</f>
         <v>102</v>
       </c>
+      <c r="C96" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
         <f>COUNTA(output!C98:EQ98)</f>
         <v>83</v>
       </c>
+      <c r="C97" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
         <f>COUNTA(output!C99:EQ99)</f>
         <v>2</v>
       </c>
+      <c r="C98" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
         <f>COUNTA(output!C100:EQ100)</f>
         <v>5</v>
       </c>
+      <c r="C99" s="1">
+        <v>88.0</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
         <f>COUNTA(output!C101:EQ101)</f>
         <v>96</v>
       </c>
+      <c r="C100" s="1">
+        <v>89.0</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
         <f>COUNTA(output!C102:EQ102)</f>
         <v>73</v>
       </c>
+      <c r="C101" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
         <f>COUNTA(output!C103:EQ103)</f>
         <v>85</v>
       </c>
+      <c r="C102" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
         <f>COUNTA(output!C104:EQ104)</f>
         <v>97</v>
       </c>
+      <c r="C103" s="1">
+        <v>92.0</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
         <f>COUNTA(output!C105:EQ105)</f>
         <v>86</v>
       </c>
+      <c r="C104" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
         <f>COUNTA(output!C106:EQ106)</f>
         <v>4</v>
       </c>
+      <c r="C105" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
         <f>COUNTA(output!C107:EQ107)</f>
         <v>4</v>
       </c>
+      <c r="C106" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
         <f>COUNTA(output!C108:EQ108)</f>
         <v>71</v>
       </c>
+      <c r="C107" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
         <f>COUNTA(output!C109:EQ109)</f>
         <v>3</v>
       </c>
+      <c r="C108" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="D108" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
         <f>COUNTA(output!C110:EQ110)</f>
         <v>76</v>
       </c>
+      <c r="C109" s="1">
+        <v>98.0</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
         <f>COUNTA(output!C111:EQ111)</f>
         <v>76</v>
       </c>
+      <c r="C110" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
         <f>COUNTA(output!C112:EQ112)</f>
         <v>61</v>
       </c>
+      <c r="C111" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
         <f>COUNTA(output!C113:EQ113)</f>
         <v>4</v>
       </c>
+      <c r="C112" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
         <f>COUNTA(output!C114:EQ114)</f>
         <v>85</v>
       </c>
+      <c r="C113" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
         <f>COUNTA(output!C115:EQ115)</f>
         <v>3</v>
       </c>
+      <c r="C114" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
         <f>COUNTA(output!C116:EQ116)</f>
         <v>4</v>
       </c>
+      <c r="C115" s="1">
+        <v>104.0</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
         <f>COUNTA(output!C117:EQ117)</f>
         <v>113</v>
       </c>
+      <c r="C116" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
         <f>COUNTA(output!C118:EQ118)</f>
         <v>8</v>
       </c>
+      <c r="C117" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
         <f>COUNTA(output!C119:EQ119)</f>
         <v>85</v>
       </c>
+      <c r="C118" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
         <f>COUNTA(output!C120:EQ120)</f>
         <v>85</v>
       </c>
+      <c r="C119" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
         <f>COUNTA(output!C121:EQ121)</f>
         <v>76</v>
       </c>
+      <c r="C120" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
         <f>COUNTA(output!C122:EQ122)</f>
         <v>3</v>
       </c>
+      <c r="C121" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
         <f>COUNTA(output!C123:EQ123)</f>
         <v>5</v>
       </c>
+      <c r="C122" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
         <f>COUNTA(output!C124:EQ124)</f>
         <v>2</v>
       </c>
+      <c r="C123" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
         <f>COUNTA(output!C125:EQ125)</f>
         <v>34</v>
       </c>
+      <c r="C124" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
         <f>COUNTA(output!C126:EQ126)</f>
         <v>90</v>
       </c>
+      <c r="C125" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
         <f>COUNTA(output!C127:EQ127)</f>
         <v>3</v>
       </c>
+      <c r="C126" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="D126" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
         <f>COUNTA(output!C128:EQ128)</f>
         <v>85</v>
       </c>
+      <c r="C127" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="D127" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
         <f>COUNTA(output!C129:EQ129)</f>
         <v>4</v>
       </c>
+      <c r="C128" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="D128" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
         <f>COUNTA(output!C130:EQ130)</f>
         <v>92</v>
       </c>
+      <c r="C129" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="D129" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
         <f>COUNTA(output!C131:EQ131)</f>
         <v>80</v>
       </c>
+      <c r="C130" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="D130" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
         <f>COUNTA(output!C132:EQ132)</f>
         <v>66</v>
       </c>
+      <c r="C131" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="D131" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
         <f>COUNTA(output!C133:EQ133)</f>
         <v>4</v>
       </c>
+      <c r="C132" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="D132" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
         <f>COUNTA(output!C134:EQ134)</f>
         <v>3</v>
       </c>
+      <c r="C133" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="D133" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
         <f>COUNTA(output!C135:EQ135)</f>
         <v>74</v>
       </c>
+      <c r="C134" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="D134" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
         <f>COUNTA(output!C136:EQ136)</f>
         <v>5</v>
       </c>
+      <c r="C135" s="1">
+        <v>124.0</v>
+      </c>
+      <c r="D135" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
         <f>COUNTA(output!C137:EQ137)</f>
         <v>4</v>
       </c>
+      <c r="C136" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="D136" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
         <f>COUNTA(output!C138:EQ138)</f>
         <v>5</v>
       </c>
+      <c r="C137" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="D137" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
         <f>COUNTA(output!C139:EQ139)</f>
         <v>80</v>
       </c>
+      <c r="C138" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="D138" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
         <f>COUNTA(output!C140:EQ140)</f>
         <v>93</v>
       </c>
+      <c r="C139" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="D139" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
         <f>COUNTA(output!C141:EQ141)</f>
         <v>78</v>
       </c>
+      <c r="C140" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="D140" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
         <f>COUNTA(output!C142:EQ142)</f>
         <v>3</v>
       </c>
+      <c r="C141" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="D141" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
         <f>COUNTA(output!C143:EQ143)</f>
         <v>5</v>
       </c>
+      <c r="C142" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="D142" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
         <f>COUNTA(output!C144:EQ144)</f>
         <v>85</v>
       </c>
+      <c r="C143" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="D143" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
         <f>COUNTA(output!C145:EQ145)</f>
         <v>100</v>
       </c>
+      <c r="C144" s="1">
+        <v>133.0</v>
+      </c>
+      <c r="D144" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
         <f>COUNTA(output!C146:EQ146)</f>
         <v>73</v>
       </c>
+      <c r="C145" s="1">
+        <v>134.0</v>
+      </c>
+      <c r="D145" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
         <f>COUNTA(output!C147:EQ147)</f>
         <v>90</v>
       </c>
+      <c r="C146" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="D146" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
         <f>COUNTA(output!C148:EQ148)</f>
         <v>57</v>
       </c>
+      <c r="C147" s="1">
+        <v>136.0</v>
+      </c>
+      <c r="D147" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
         <f>COUNTA(output!C149:EQ149)</f>
         <v>92</v>
       </c>
+      <c r="C148" s="1">
+        <v>137.0</v>
+      </c>
+      <c r="D148" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
         <f>COUNTA(output!C150:EQ150)</f>
         <v>58</v>
       </c>
+      <c r="C149" s="1">
+        <v>138.0</v>
+      </c>
+      <c r="D149" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
         <f>COUNTA(output!C151:EQ151)</f>
         <v>2</v>
       </c>
+      <c r="C150" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="D150" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
         <f>COUNTA(output!C152:EQ152)</f>
         <v>3</v>
       </c>
+      <c r="C151" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="D151" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
         <f>COUNTA(output!C153:EQ153)</f>
         <v>106</v>
       </c>
+      <c r="C152" s="1">
+        <v>141.0</v>
+      </c>
+      <c r="D152" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
         <f>COUNTA(output!C154:EQ154)</f>
         <v>65</v>
       </c>
+      <c r="C153" s="1">
+        <v>142.0</v>
+      </c>
+      <c r="D153" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
         <f>COUNTA(output!C155:EQ155)</f>
         <v>102</v>
       </c>
+      <c r="C154" s="1">
+        <v>143.0</v>
+      </c>
+      <c r="D154" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
         <f>COUNTA(output!C156:EQ156)</f>
         <v>77</v>
       </c>
+      <c r="C155" s="1">
+        <v>144.0</v>
+      </c>
+      <c r="D155" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
         <f>COUNTA(output!C157:EQ157)</f>
         <v>3</v>
       </c>
+      <c r="C156" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="D156" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
